--- a/clanoverview_logs/logs/2017-12-20_clanoverzicht.xlsx
+++ b/clanoverview_logs/logs/2017-12-20_clanoverzicht.xlsx
@@ -209,16 +209,16 @@
     <t>#828YUV9J</t>
   </si>
   <si>
+    <t>peter</t>
+  </si>
+  <si>
+    <t>#8LV09JG9</t>
+  </si>
+  <si>
     <t>elandro</t>
   </si>
   <si>
     <t>#22GU992L</t>
-  </si>
-  <si>
-    <t>peter</t>
-  </si>
-  <si>
-    <t>#8LV09JG9</t>
   </si>
   <si>
     <t>mauzer99</t>
@@ -468,13 +468,13 @@
         <v>197.0</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>5550.0</v>
+        <v>5544.0</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>9841.0</v>
+        <v>9849.0</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>4877.0</v>
@@ -503,10 +503,10 @@
         <v>14</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1353.0</v>
+        <v>1392.0</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>1313.0</v>
+        <v>1350.0</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>1.03</v>
@@ -584,7 +584,7 @@
         <v>169.0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>5116.0</v>
+        <v>5119.0</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>23</v>
@@ -613,7 +613,7 @@
         <v>184.0</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>5064.0</v>
+        <v>5043.0</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -677,13 +677,13 @@
         <v>14</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>5412.0</v>
+        <v>5451.0</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>2751.0</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="11">
@@ -700,7 +700,7 @@
         <v>159.0</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>4910.0</v>
+        <v>4923.0</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>14</v>
@@ -729,16 +729,16 @@
         <v>161.0</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>4841.0</v>
+        <v>4846.0</v>
       </c>
       <c r="F12" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3241.0</v>
+        <v>3278.0</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>3452.0</v>
+        <v>3489.0</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>0.94</v>
@@ -787,7 +787,7 @@
         <v>179.0</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>4814.0</v>
+        <v>4824.0</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -796,10 +796,10 @@
         <v>1138.0</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>1587.0</v>
+        <v>1661.0</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.72</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="15">
@@ -822,10 +822,10 @@
         <v>14</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>1458.0</v>
+        <v>1488.0</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>2048.0</v>
+        <v>2085.0</v>
       </c>
       <c r="I15" s="3" t="n">
         <v>0.71</v>
@@ -1086,7 +1086,7 @@
         <v>612.0</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>1550.0</v>
+        <v>1587.0</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>0.39</v>
@@ -1190,22 +1190,22 @@
         <v>66</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>175.0</v>
+        <v>159.0</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>4320.0</v>
+        <v>4308.0</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2989.0</v>
+        <v>2167.0</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>3756.0</v>
+        <v>3146.0</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.8</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="29">
@@ -1219,22 +1219,22 @@
         <v>68</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>159.0</v>
+        <v>175.0</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>4305.0</v>
+        <v>4285.0</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>2135.0</v>
+        <v>2989.0</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>3131.0</v>
+        <v>3756.0</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>0.68</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="30">
@@ -1280,19 +1280,19 @@
         <v>146.0</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>4027.0</v>
+        <v>4033.0</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>56</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>419.0</v>
+        <v>424.0</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>369.0</v>
+        <v>406.0</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="32">
@@ -1309,7 +1309,7 @@
         <v>168.0</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>4007.0</v>
+        <v>4030.0</v>
       </c>
       <c r="F32" t="s">
         <v>23</v>
@@ -1402,13 +1402,13 @@
         <v>14</v>
       </c>
       <c r="G35" s="3" t="n">
-        <v>7116.0</v>
+        <v>7185.0</v>
       </c>
       <c r="H35" s="3" t="n">
         <v>5661.0</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="36">
@@ -1489,13 +1489,13 @@
         <v>56</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>586.0</v>
+        <v>638.0</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>389.0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>1.51</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="39">
@@ -1512,7 +1512,7 @@
         <v>151.0</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>3446.0</v>
+        <v>3424.0</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>14</v>
@@ -1570,7 +1570,7 @@
         <v>165.0</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>3113.0</v>
+        <v>3124.0</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>56</v>
@@ -1579,10 +1579,10 @@
         <v>1269.0</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>877.0</v>
+        <v>914.0</v>
       </c>
       <c r="I41" s="3" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="42">
@@ -1599,7 +1599,7 @@
         <v>112.0</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>2482.0</v>
+        <v>2478.0</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -1646,7 +1646,7 @@
   </sheetData>
   <pageMargins bottom="0.5" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.5"/>
   <headerFooter>
-    <oddFooter>&amp;LClanoverzicht&amp;R20/12/2017 13:01</oddFooter>
+    <oddFooter>&amp;LClanoverzicht&amp;R20/12/2017 15:01</oddFooter>
   </headerFooter>
 </worksheet>
 </file>